--- a/app/src/main/assets/Culinary of Asian Countries.xlsx
+++ b/app/src/main/assets/Culinary of Asian Countries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F8D39C-BCC0-4DCF-85D4-C083FBB35085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860161A-FCAD-41BE-A6B2-F78D0A82A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>Which of the following is the most common type of banana used in Filipino cuisine?</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Nilagang baboy or kare-kare</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +582,10 @@
     <col min="6" max="6" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +604,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -615,8 +630,14 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -635,8 +656,14 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -655,8 +682,14 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -675,8 +708,14 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -695,8 +734,14 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -715,8 +760,14 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -735,8 +786,14 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -755,8 +812,14 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -774,6 +837,9 @@
       </c>
       <c r="G10" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472D443A-9BE7-4400-A2BD-705ECC7491C7}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,84 +862,144 @@
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
       <c r="B8" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DDE84-A26A-47A6-80E2-5AADE43D50BD}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -895,84 +1021,144 @@
     <col min="2" max="2" width="133.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
